--- a/lab4/dat4.xlsx
+++ b/lab4/dat4.xlsx
@@ -21,10 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -180,6 +176,51 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Лист1!$F$1:$F$100</c:f>
@@ -808,11 +849,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="559130808"/>
-        <c:axId val="559125320"/>
+        <c:axId val="530937632"/>
+        <c:axId val="530936064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="559130808"/>
+        <c:axId val="530937632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -869,12 +910,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559125320"/>
+        <c:crossAx val="530936064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="559125320"/>
+        <c:axId val="530936064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -931,7 +972,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559130808"/>
+        <c:crossAx val="530937632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1085,310 +1126,319 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$F$1:$F$100</c:f>
+              <c:f>Лист1!$F$13:$F$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.5649493574615367</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.69314718055994529</c:v>
+                  <c:v>2.6390573296152584</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0986122886681098</c:v>
+                  <c:v>2.7080502011022101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3862943611198906</c:v>
+                  <c:v>2.7725887222397811</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6094379124341003</c:v>
+                  <c:v>2.8332133440562162</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.791759469228055</c:v>
+                  <c:v>2.8903717578961645</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9459101490553132</c:v>
+                  <c:v>2.9444389791664403</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0794415416798357</c:v>
+                  <c:v>2.9957322735539909</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1972245773362196</c:v>
+                  <c:v>3.044522437723423</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3025850929940459</c:v>
+                  <c:v>3.0910424533583161</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.3978952727983707</c:v>
+                  <c:v>3.1354942159291497</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.4849066497880004</c:v>
+                  <c:v>3.1780538303479458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.5649493574615367</c:v>
+                  <c:v>3.2188758248682006</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.6390573296152584</c:v>
+                  <c:v>3.2580965380214821</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.7080502011022101</c:v>
+                  <c:v>3.2958368660043291</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.7725887222397811</c:v>
+                  <c:v>3.3322045101752038</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.8332133440562162</c:v>
+                  <c:v>3.3672958299864741</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.8903717578961645</c:v>
+                  <c:v>3.4011973816621555</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.9444389791664403</c:v>
+                  <c:v>3.4339872044851463</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.9957322735539909</c:v>
+                  <c:v>3.4657359027997265</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.044522437723423</c:v>
+                  <c:v>3.4965075614664802</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.0910424533583161</c:v>
+                  <c:v>3.5263605246161616</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.1354942159291497</c:v>
+                  <c:v>3.5553480614894135</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.1780538303479458</c:v>
+                  <c:v>3.5835189384561099</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.2188758248682006</c:v>
+                  <c:v>3.6109179126442243</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.2580965380214821</c:v>
+                  <c:v>3.6375861597263857</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.2958368660043291</c:v>
+                  <c:v>3.6635616461296463</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.3322045101752038</c:v>
+                  <c:v>3.6888794541139363</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.3672958299864741</c:v>
+                  <c:v>3.713572066704308</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.4011973816621555</c:v>
+                  <c:v>3.7376696182833684</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.4339872044851463</c:v>
+                  <c:v>3.7612001156935624</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.4657359027997265</c:v>
+                  <c:v>3.784189633918261</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.4965075614664802</c:v>
+                  <c:v>3.8066624897703196</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.5263605246161616</c:v>
+                  <c:v>3.8286413964890951</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.5553480614894135</c:v>
+                  <c:v>3.8501476017100584</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.5835189384561099</c:v>
+                  <c:v>3.8712010109078911</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6109179126442243</c:v>
+                  <c:v>3.8918202981106265</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.6375861597263857</c:v>
+                  <c:v>3.912023005428146</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.6635616461296463</c:v>
+                  <c:v>3.9318256327243257</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.6888794541139363</c:v>
+                  <c:v>3.9512437185814275</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.713572066704308</c:v>
+                  <c:v>3.970291913552122</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.7376696182833684</c:v>
+                  <c:v>3.9889840465642745</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.7612001156935624</c:v>
+                  <c:v>4.0073331852324712</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.784189633918261</c:v>
+                  <c:v>4.0253516907351496</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.8066624897703196</c:v>
+                  <c:v>4.0430512678345503</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.8286413964890951</c:v>
+                  <c:v>4.0604430105464191</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.8501476017100584</c:v>
+                  <c:v>4.0775374439057197</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.8712010109078911</c:v>
+                  <c:v>4.0943445622221004</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.8918202981106265</c:v>
+                  <c:v>4.1108738641733114</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.912023005428146</c:v>
+                  <c:v>4.1271343850450917</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.9318256327243257</c:v>
+                  <c:v>4.1431347263915326</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.9512437185814275</c:v>
+                  <c:v>4.1588830833596715</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.970291913552122</c:v>
+                  <c:v>4.1743872698956368</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.9889840465642745</c:v>
+                  <c:v>4.1896547420264252</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.0073331852324712</c:v>
+                  <c:v>4.2046926193909657</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.0253516907351496</c:v>
+                  <c:v>4.219507705176107</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.0430512678345503</c:v>
+                  <c:v>4.2341065045972597</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4.0604430105464191</c:v>
+                  <c:v>4.2484952420493594</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.0775374439057197</c:v>
+                  <c:v>4.2626798770413155</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.0943445622221004</c:v>
+                  <c:v>4.2766661190160553</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.1108738641733114</c:v>
+                  <c:v>4.290459441148391</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.1271343850450917</c:v>
+                  <c:v>4.3040650932041702</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.1431347263915326</c:v>
+                  <c:v>4.3174881135363101</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.1588830833596715</c:v>
+                  <c:v>4.3307333402863311</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.1743872698956368</c:v>
+                  <c:v>4.3438054218536841</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.1896547420264252</c:v>
+                  <c:v>4.3567088266895917</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.2046926193909657</c:v>
+                  <c:v>4.3694478524670215</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4.219507705176107</c:v>
+                  <c:v>4.3820266346738812</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4.2341065045972597</c:v>
+                  <c:v>4.3944491546724391</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4.2484952420493594</c:v>
+                  <c:v>4.4067192472642533</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4.2626798770413155</c:v>
+                  <c:v>4.4188406077965983</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4.2766661190160553</c:v>
+                  <c:v>4.4308167988433134</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.290459441148391</c:v>
+                  <c:v>4.4426512564903167</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4.3040650932041702</c:v>
+                  <c:v>4.4543472962535073</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4.3174881135363101</c:v>
+                  <c:v>4.4659081186545837</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4.3307333402863311</c:v>
+                  <c:v>4.4773368144782069</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4.3438054218536841</c:v>
+                  <c:v>4.4886363697321396</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.3567088266895917</c:v>
+                  <c:v>4.499809670330265</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4.3694478524670215</c:v>
+                  <c:v>4.5108595065168497</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4.3820266346738812</c:v>
+                  <c:v>4.5217885770490405</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4.3944491546724391</c:v>
+                  <c:v>4.5325994931532563</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.4067192472642533</c:v>
+                  <c:v>4.5432947822700038</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.4188406077965983</c:v>
+                  <c:v>4.5538768916005408</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.4308167988433134</c:v>
+                  <c:v>4.5643481914678361</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.4426512564903167</c:v>
+                  <c:v>4.5747109785033828</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.4543472962535073</c:v>
+                  <c:v>4.5849674786705723</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.4659081186545837</c:v>
+                  <c:v>4.5951198501345898</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.4773368144782069</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>4.4886363697321396</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>4.499809670330265</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>4.5108595065168497</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>4.5217885770490405</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>4.5325994931532563</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>4.5432947822700038</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>4.5538768916005408</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>4.5643481914678361</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>4.5747109785033828</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>4.5849674786705723</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>4.5951198501345898</c:v>
-                </c:pt>
-                <c:pt idx="99">
                   <c:v>4.6051701859880918</c:v>
                 </c:pt>
               </c:numCache>
@@ -1396,308 +1446,272 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$H$1:$H$100</c:f>
+              <c:f>Лист1!$H$13:$H$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
-                  <c:v>-0.60876742993009236</c:v>
+                  <c:v>-1.6359256352712033</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.5371068816348146</c:v>
+                  <c:v>-1.7150595732984792</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75799815287956163</c:v>
+                  <c:v>-1.7882536218988099</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.12081036339239314</c:v>
+                  <c:v>-1.856349191676391</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.49386035128997124</c:v>
+                  <c:v>-1.9200270258917642</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.7449521847960201</c:v>
+                  <c:v>-1.9798351492817718</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.93825774977471366</c:v>
+                  <c:v>-2.0362211456253196</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.0969017524696625</c:v>
+                  <c:v>-2.0895565260876565</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.2320808261252025</c:v>
+                  <c:v>-2.1401601679145474</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.350159172536151</c:v>
+                  <c:v>-2.1883015066073748</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.4551515275294784</c:v>
+                  <c:v>-2.2342164162761224</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.5497643309484834</c:v>
+                  <c:v>-2.278097379442829</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.6359256352712033</c:v>
+                  <c:v>-2.3201158629136089</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.7150595732984792</c:v>
+                  <c:v>-2.3604303308789332</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.7882536218988099</c:v>
+                  <c:v>-2.3991719874517936</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.856349191676391</c:v>
+                  <c:v>-2.4364605448001408</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.9200270258917642</c:v>
+                  <c:v>-2.4724011702677164</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.9798351492817718</c:v>
+                  <c:v>-2.5070884570897065</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-2.0362211456253196</c:v>
+                  <c:v>-2.5406075380992328</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-2.0895565260876565</c:v>
+                  <c:v>-2.5730338490758511</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-2.1401601679145474</c:v>
+                  <c:v>-2.6044377624410782</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-2.1883015066073748</c:v>
+                  <c:v>-2.6348810623718459</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-2.2342164162761224</c:v>
+                  <c:v>-2.6644233438896583</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-2.278097379442829</c:v>
+                  <c:v>-2.6931138064988112</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-2.3201158629136089</c:v>
+                  <c:v>-2.7210017109912514</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-2.3604303308789332</c:v>
+                  <c:v>-2.7481302834074075</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-2.3991719874517936</c:v>
+                  <c:v>-2.7745410267466308</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-2.4364605448001408</c:v>
+                  <c:v>-2.8002691137998279</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-2.4724011702677164</c:v>
+                  <c:v>-2.8253500410164611</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-2.5070884570897065</c:v>
+                  <c:v>-2.8498171271144086</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-2.5406075380992328</c:v>
+                  <c:v>-2.8736987285693103</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-2.5730338490758511</c:v>
+                  <c:v>-2.89702061262413</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-2.6044377624410782</c:v>
+                  <c:v>-2.919810661325859</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-2.6348810623718459</c:v>
+                  <c:v>-2.9420910377394796</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-2.6644233438896583</c:v>
+                  <c:v>-2.9638848301148712</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-2.6931138064988112</c:v>
+                  <c:v>-2.9852137872999904</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-2.7210017109912514</c:v>
+                  <c:v>-3.0060957897564702</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-2.7481302834074075</c:v>
+                  <c:v>-3.0265503082960983</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-2.7745410267466308</c:v>
+                  <c:v>-3.0465940820975805</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-2.8002691137998279</c:v>
+                  <c:v>-3.0662427245538715</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-2.8253500410164611</c:v>
+                  <c:v>-3.0855147592484991</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-2.8498171271144086</c:v>
+                  <c:v>-3.1044183126403944</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-2.8736987285693103</c:v>
+                  <c:v>-3.1229726391084864</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-2.89702061262413</c:v>
+                  <c:v>-3.1411881959090957</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-2.919810661325859</c:v>
+                  <c:v>-3.1590774266334272</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-2.9420910377394796</c:v>
+                  <c:v>-3.1766524127924129</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-2.9638848301148712</c:v>
+                  <c:v>-3.1939222707162838</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-2.9852137872999904</c:v>
+                  <c:v>-3.2109002147705135</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-3.0060957897564702</c:v>
+                  <c:v>-3.2275911936010981</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-3.0265503082960983</c:v>
+                  <c:v>-3.244011598139763</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-3.0465940820975805</c:v>
+                  <c:v>-3.260164073901533</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-3.0662427245538715</c:v>
+                  <c:v>-3.2760601213960445</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-3.0855147592484991</c:v>
+                  <c:v>-3.2917073043931011</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-3.1044183126403944</c:v>
+                  <c:v>-3.3071143180934484</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-3.1229726391084864</c:v>
+                  <c:v>-3.3222854669402011</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-3.1411881959090957</c:v>
+                  <c:v>-3.3372315244652828</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-3.1590774266334272</c:v>
+                  <c:v>-3.3519558907845175</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-3.1766524127924129</c:v>
+                  <c:v>-3.3664655747437635</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-3.1939222707162838</c:v>
+                  <c:v>-3.380768479928522</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-3.2109002147705135</c:v>
+                  <c:v>-3.3948704390419331</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-3.2275911936010981</c:v>
+                  <c:v>-3.4087750195787772</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-3.244011598139763</c:v>
+                  <c:v>-3.4224894576365092</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-3.260164073901533</c:v>
+                  <c:v>-3.4360186665075774</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-3.2760601213960445</c:v>
+                  <c:v>-3.4493650396287849</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-3.2917073043931011</c:v>
+                  <c:v>-3.4625378221156313</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-3.3071143180934484</c:v>
+                  <c:v>-3.4755373807320402</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-3.3222854669402011</c:v>
+                  <c:v>-3.48837095362286</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-3.3372315244652828</c:v>
+                  <c:v>-3.5010431316319575</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-3.3519558907845175</c:v>
+                  <c:v>-3.5135556579683147</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-3.3664655747437635</c:v>
+                  <c:v>-3.5259140243122595</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-3.380768479928522</c:v>
+                  <c:v>-3.5381173662277474</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-3.3948704390419331</c:v>
+                  <c:v>-3.5501789444244123</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-3.4087750195787772</c:v>
+                  <c:v>-3.5620952728116562</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-3.4224894576365092</c:v>
+                  <c:v>-3.5738700391674856</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-3.4360186665075774</c:v>
+                  <c:v>-3.5855073139651243</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-3.4493650396287849</c:v>
+                  <c:v>-3.5970115558046616</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-3.4625378221156313</c:v>
+                  <c:v>-3.6083839259021735</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-3.4755373807320402</c:v>
+                  <c:v>-3.6196295489962922</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-3.48837095362286</c:v>
+                  <c:v>-3.6307501783796186</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-3.5010431316319575</c:v>
+                  <c:v>-3.6417478073816651</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-3.5135556579683147</c:v>
+                  <c:v>-3.6526246734547652</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-3.5259140243122595</c:v>
+                  <c:v>-3.6633871613530005</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-3.5381173662277474</c:v>
+                  <c:v>-3.6740302512637304</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-3.5501789444244123</c:v>
+                  <c:v>-3.6845647757404545</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-3.5620952728116562</c:v>
+                  <c:v>-3.6949900860550002</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-3.5738700391674856</c:v>
+                  <c:v>-3.7053056280496901</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-3.5855073139651243</c:v>
+                  <c:v>-3.7155191610628306</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-3.5970115558046616</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>-3.6083839259021735</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-3.6196295489962922</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>-3.6307501783796186</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>-3.6417478073816651</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>-3.6526246734547652</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>-3.6633871613530005</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>-3.6740302512637304</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>-3.6845647757404545</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>-3.6949900860550002</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>-3.7053056280496901</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>-3.7155191610628306</c:v>
-                </c:pt>
-                <c:pt idx="99">
                   <c:v>-3.7256264294810522</c:v>
                 </c:pt>
               </c:numCache>
@@ -1713,11 +1727,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="558142984"/>
-        <c:axId val="558132400"/>
+        <c:axId val="530935672"/>
+        <c:axId val="530936848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="558142984"/>
+        <c:axId val="530935672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1774,12 +1788,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558132400"/>
+        <c:crossAx val="530936848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="558132400"/>
+        <c:axId val="530936848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1836,7 +1850,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558142984"/>
+        <c:crossAx val="530935672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2001,620 +2015,119 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$F$1:$F$100</c:f>
+              <c:f>Лист1!$F$3:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.0986122886681098</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.69314718055994529</c:v>
+                  <c:v>1.3862943611198906</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0986122886681098</c:v>
+                  <c:v>1.6094379124341003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3862943611198906</c:v>
+                  <c:v>1.791759469228055</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6094379124341003</c:v>
+                  <c:v>1.9459101490553132</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.791759469228055</c:v>
+                  <c:v>2.0794415416798357</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9459101490553132</c:v>
+                  <c:v>2.1972245773362196</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0794415416798357</c:v>
+                  <c:v>2.3025850929940459</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1972245773362196</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.3025850929940459</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>2.3978952727983707</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.4849066497880004</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.5649493574615367</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.6390573296152584</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.7080502011022101</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.7725887222397811</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.8332133440562162</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.8903717578961645</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.9444389791664403</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.9957322735539909</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.044522437723423</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.0910424533583161</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.1354942159291497</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.1780538303479458</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.2188758248682006</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.2580965380214821</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.2958368660043291</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.3322045101752038</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.3672958299864741</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.4011973816621555</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.4339872044851463</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.4657359027997265</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.4965075614664802</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.5263605246161616</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.5553480614894135</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.5835189384561099</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.6109179126442243</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.6375861597263857</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.6635616461296463</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.6888794541139363</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3.713572066704308</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.7376696182833684</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3.7612001156935624</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3.784189633918261</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3.8066624897703196</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3.8286413964890951</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.8501476017100584</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3.8712010109078911</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3.8918202981106265</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>3.912023005428146</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3.9318256327243257</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3.9512437185814275</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3.970291913552122</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>3.9889840465642745</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>4.0073331852324712</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>4.0253516907351496</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>4.0430512678345503</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>4.0604430105464191</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>4.0775374439057197</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>4.0943445622221004</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>4.1108738641733114</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>4.1271343850450917</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>4.1431347263915326</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>4.1588830833596715</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>4.1743872698956368</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>4.1896547420264252</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>4.2046926193909657</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>4.219507705176107</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>4.2341065045972597</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>4.2484952420493594</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>4.2626798770413155</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>4.2766661190160553</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>4.290459441148391</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>4.3040650932041702</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>4.3174881135363101</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>4.3307333402863311</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>4.3438054218536841</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>4.3567088266895917</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>4.3694478524670215</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>4.3820266346738812</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>4.3944491546724391</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>4.4067192472642533</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>4.4188406077965983</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>4.4308167988433134</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>4.4426512564903167</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>4.4543472962535073</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>4.4659081186545837</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>4.4773368144782069</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>4.4886363697321396</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>4.499809670330265</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>4.5108595065168497</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>4.5217885770490405</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>4.5325994931532563</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>4.5432947822700038</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>4.5538768916005408</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>4.5643481914678361</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>4.5747109785033828</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>4.5849674786705723</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>4.5951198501345898</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>4.6051701859880918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$I$1:$I$100</c:f>
+              <c:f>Лист1!$I$3:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>-0.60876742993009236</c:v>
+                  <c:v>-11.775633988688135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.0198995753352857</c:v>
+                  <c:v>-16.672279468792539</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-11.775633988688135</c:v>
+                  <c:v>-19.763835159078408</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-16.672279468792539</c:v>
+                  <c:v>-22.086531407885484</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-19.763835159078408</c:v>
+                  <c:v>-23.95748375211388</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-22.086531407885484</c:v>
+                  <c:v>-25.527199205523335</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-23.95748375211388</c:v>
+                  <c:v>-26.880666911599025</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-25.527199205523335</c:v>
+                  <c:v>-28.070154182307803</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-26.880666911599025</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-28.070154182307803</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>-29.132403148464846</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-30.091709021481616</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-30.968480609374151</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-31.766987992841674</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-32.50269391755937</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-33.645758384150078</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-33.964210068179419</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-34.338901470535831</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-34.790890571476446</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-35.350506681097656</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-35.638188002949427</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-35.350506681097656</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-36.736803294020959</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-36.043651609859261</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-36.043651609859261</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-36.043651609859261</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-36.736803294020959</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-35.350506681097656</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-36.043651609859261</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-36.043651609859261</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-35.638188002949427</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-35.350506681097656</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-36.043651609859261</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-35.350506681097656</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-36.043651609859261</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-36.736803294020959</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-36.043651609859261</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-36.736803294020959</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-35.350506681097656</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-36.043651609859261</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-36.736803294020959</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-35.638188002949427</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-34.94504082238948</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-36.736803294020959</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-36.043651609859261</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-36.043651609859261</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-36.736803294020959</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-35.638188002949427</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-35.350506681097656</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-36.736803294020959</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-36.043651609859261</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-36.043651609859261</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-36.736803294020959</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-36.736803294020959</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-35.350506681097656</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-35.638188002949427</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-36.043651609859261</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>-36.043651609859261</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-36.736803294020959</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-36.736803294020959</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-35.638188002949427</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-36.043651609859261</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-35.638188002949427</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>-36.043651609859261</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>-36.736803294020959</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>-36.043651609859261</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>-36.736803294020959</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-35.127361778703829</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>-36.736803294020959</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-35.638188002949427</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-35.127361778703829</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-36.043651609859261</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-36.736803294020959</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>-36.736803294020959</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>-36.043651609859261</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>-36.043651609859261</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>-35.638188002949427</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>-36.736803294020959</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>-35.350506681097656</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>-36.043651609859261</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-36.043651609859261</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>-36.736803294020959</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>-36.043651609859261</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>-35.350506681097656</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>-35.127361778703829</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>-36.736803294020959</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>-36.736803294020959</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>-36.043651609859261</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>-36.736803294020959</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2629,11 +2142,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="558137888"/>
-        <c:axId val="558137496"/>
+        <c:axId val="530937240"/>
+        <c:axId val="530934496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="558137888"/>
+        <c:axId val="530937240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2690,12 +2203,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558137496"/>
+        <c:crossAx val="530934496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="558137496"/>
+        <c:axId val="530934496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2752,7 +2265,628 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558137888"/>
+        <c:crossAx val="530937240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$F$3:$F$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.0986122886681098</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3862943611198906</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6094379124341003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.791759469228055</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9459101490553132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0794415416798357</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1972245773362196</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3025850929940459</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3978952727983707</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4849066497880004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5649493574615367</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.6390573296152584</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7080502011022101</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7725887222397811</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8332133440562162</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.8903717578961645</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9444389791664403</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9957322735539909</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.044522437723423</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.0910424533583161</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.1354942159291497</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1780538303479458</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.2188758248682006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.2580965380214821</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.2958368660043291</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.3322045101752038</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.3672958299864741</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.4011973816621555</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.4339872044851463</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.4657359027997265</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.4965075614664802</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.5263605246161616</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.5553480614894135</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.5835189384561099</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.6109179126442243</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.6375861597263857</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6635616461296463</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.6888794541139363</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.713572066704308</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.7376696182833684</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.7612001156935624</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.784189633918261</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.8066624897703196</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.8286413964890951</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.8501476017100584</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.8712010109078911</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.8918202981106265</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.912023005428146</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.9318256327243257</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.9512437185814275</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$M$3:$M$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>-7.7577410819858557</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-11.82913322018198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-14.340375946264071</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-16.214507437308392</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-17.719585235209927</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-18.980253782801544</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-20.066108594119623</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-21.020339876165604</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-21.871737711411473</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-22.640486493539296</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-23.341346914507039</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-23.98537280600689</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-24.581141624304109</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-25.135364125347682</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-25.653627526950839</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-26.140265393268766</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-26.59867684311217</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-27.032618775007798</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-27.44396080478742</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-27.834889139623524</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-28.208073796717898</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-28.563507288825011</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-28.905580918829973</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-29.231856139555379</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-29.54687549887068</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-29.849246678304855</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-30.141020368292249</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-30.423252702227334</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-30.701319620466954</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-30.956057776625343</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-31.223372949801419</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-31.468943649231097</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-31.712919454729317</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-31.932781068013149</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-32.162086186909853</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-32.354774407543665</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-32.56241325267569</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-32.747817245853398</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-33.073238876441678</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-33.271065702368197</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-33.517923866269733</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-33.440964426413345</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-33.79236336672615</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-34.171851165109786</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-34.251892140631199</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-34.251892140631199</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-34.539575714281312</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-34.94504082238948</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-34.657359500537709</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-35.127361778703829</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="536325048"/>
+        <c:axId val="536326224"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="536325048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="536326224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="536326224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="536325048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2921,6 +3055,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3954,6 +4128,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4556,6 +5246,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4827,15 +5547,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B97" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -4864,8 +5584,15 @@
         <f>LN(D1)</f>
         <v>-0.60876742993009236</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L1">
+        <v>0.54402099999999998</v>
+      </c>
+      <c r="M1">
+        <f>LN(L1)</f>
+        <v>-0.60876742993009236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -4894,8 +5621,15 @@
         <f t="shared" ref="I2:I65" si="3">LN(D2)</f>
         <v>-5.0198995753352857</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <v>8.4492100000000001E-2</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2:M65" si="4">LN(L2)</f>
+        <v>-2.4710972401138367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -4924,8 +5658,15 @@
         <f t="shared" si="3"/>
         <v>-11.775633988688135</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>4.2742099999999999E-4</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="4"/>
+        <v>-7.7577410819858557</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -4954,8 +5695,15 @@
         <f t="shared" si="3"/>
         <v>-16.672279468792539</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L4" s="1">
+        <v>7.2890799999999997E-6</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="4"/>
+        <v>-11.82913322018198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -4984,8 +5732,15 @@
         <f t="shared" si="3"/>
         <v>-19.763835159078408</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L5" s="1">
+        <v>5.9163499999999999E-7</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="4"/>
+        <v>-14.340375946264071</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -5014,8 +5769,15 @@
         <f t="shared" si="3"/>
         <v>-22.086531407885484</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L6" s="1">
+        <v>9.0809000000000003E-8</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>-16.214507437308392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -5044,8 +5806,15 @@
         <f t="shared" si="3"/>
         <v>-23.95748375211388</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L7" s="1">
+        <v>2.0159600000000001E-8</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="4"/>
+        <v>-17.719585235209927</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -5074,8 +5843,15 @@
         <f t="shared" si="3"/>
         <v>-25.527199205523335</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L8" s="1">
+        <v>5.7145300000000001E-9</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="4"/>
+        <v>-18.980253782801544</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -5104,8 +5880,15 @@
         <f t="shared" si="3"/>
         <v>-26.880666911599025</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L9" s="1">
+        <v>1.9292999999999999E-9</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="4"/>
+        <v>-20.066108594119623</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -5134,8 +5917,15 @@
         <f t="shared" si="3"/>
         <v>-28.070154182307803</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L10" s="1">
+        <v>7.4298900000000003E-10</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="4"/>
+        <v>-21.020339876165604</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -5164,8 +5954,15 @@
         <f t="shared" si="3"/>
         <v>-29.132403148464846</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L11" s="1">
+        <v>3.17121E-10</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="4"/>
+        <v>-21.871737711411473</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -5194,8 +5991,15 @@
         <f t="shared" si="3"/>
         <v>-30.091709021481616</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L12" s="1">
+        <v>1.4701500000000001E-10</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="4"/>
+        <v>-22.640486493539296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -5224,8 +6028,15 @@
         <f t="shared" si="3"/>
         <v>-30.968480609374151</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L13" s="1">
+        <v>7.2942700000000003E-11</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="4"/>
+        <v>-23.341346914507039</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -5254,8 +6065,15 @@
         <f t="shared" si="3"/>
         <v>-31.766987992841674</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L14" s="1">
+        <v>3.8307599999999999E-11</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="4"/>
+        <v>-23.98537280600689</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -5284,8 +6102,15 @@
         <f t="shared" si="3"/>
         <v>-32.50269391755937</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L15" s="1">
+        <v>2.1112799999999999E-11</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="4"/>
+        <v>-24.581141624304109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -5314,8 +6139,15 @@
         <f t="shared" si="3"/>
         <v>-33.645758384150078</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L16" s="1">
+        <v>1.2129700000000001E-11</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="4"/>
+        <v>-25.135364125347682</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -5344,8 +6176,15 @@
         <f t="shared" si="3"/>
         <v>-33.964210068179419</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L17" s="1">
+        <v>7.2238900000000002E-12</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="4"/>
+        <v>-25.653627526950839</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -5374,8 +6213,15 @@
         <f t="shared" si="3"/>
         <v>-34.338901470535831</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L18" s="1">
+        <v>4.4404500000000001E-12</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="4"/>
+        <v>-26.140265393268766</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -5404,8 +6250,15 @@
         <f t="shared" si="3"/>
         <v>-34.790890571476446</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L19" s="1">
+        <v>2.8076399999999999E-12</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="4"/>
+        <v>-26.59867684311217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -5434,8 +6287,15 @@
         <f t="shared" si="3"/>
         <v>-35.350506681097656</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L20" s="1">
+        <v>1.8192099999999999E-12</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="4"/>
+        <v>-27.032618775007798</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -5464,8 +6324,15 @@
         <f t="shared" si="3"/>
         <v>-35.638188002949427</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L21" s="1">
+        <v>1.2057E-12</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="4"/>
+        <v>-27.44396080478742</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>22</v>
       </c>
@@ -5494,8 +6361,15 @@
         <f t="shared" si="3"/>
         <v>-35.350506681097656</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L22" s="1">
+        <v>8.1557000000000003E-13</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="4"/>
+        <v>-27.834889139623524</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
@@ -5524,8 +6398,15 @@
         <f t="shared" si="3"/>
         <v>-36.736803294020959</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L23" s="1">
+        <v>5.6155100000000004E-13</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="4"/>
+        <v>-28.208073796717898</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24</v>
       </c>
@@ -5554,8 +6435,15 @@
         <f t="shared" si="3"/>
         <v>-36.043651609859261</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L24" s="1">
+        <v>3.9357399999999999E-13</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="4"/>
+        <v>-28.563507288825011</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25</v>
       </c>
@@ -5584,8 +6472,15 @@
         <f t="shared" si="3"/>
         <v>-36.043651609859261</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L25" s="1">
+        <v>2.7955399999999999E-13</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="4"/>
+        <v>-28.905580918829973</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>26</v>
       </c>
@@ -5614,8 +6509,15 @@
         <f t="shared" si="3"/>
         <v>-36.043651609859261</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L26" s="1">
+        <v>2.01728E-13</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="4"/>
+        <v>-29.231856139555379</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>27</v>
       </c>
@@ -5644,8 +6546,15 @@
         <f t="shared" si="3"/>
         <v>-36.736803294020959</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L27" s="1">
+        <v>1.4721599999999999E-13</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="4"/>
+        <v>-29.54687549887068</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>28</v>
       </c>
@@ -5674,8 +6583,15 @@
         <f t="shared" si="3"/>
         <v>-35.350506681097656</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L28" s="1">
+        <v>1.0880199999999999E-13</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="4"/>
+        <v>-29.849246678304855</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>29</v>
       </c>
@@ -5704,8 +6620,15 @@
         <f t="shared" si="3"/>
         <v>-36.043651609859261</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L29" s="1">
+        <v>8.1268299999999994E-14</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="4"/>
+        <v>-30.141020368292249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>30</v>
       </c>
@@ -5734,8 +6657,15 @@
         <f t="shared" si="3"/>
         <v>-36.043651609859261</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L30" s="1">
+        <v>6.1284300000000001E-14</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="4"/>
+        <v>-30.423252702227334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>31</v>
       </c>
@@ -5764,8 +6694,15 @@
         <f t="shared" si="3"/>
         <v>-35.638188002949427</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L31" s="1">
+        <v>4.6407300000000001E-14</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="4"/>
+        <v>-30.701319620466954</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>32</v>
       </c>
@@ -5794,8 +6731,15 @@
         <f t="shared" si="3"/>
         <v>-35.350506681097656</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L32" s="1">
+        <v>3.5971200000000002E-14</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="4"/>
+        <v>-30.956057776625343</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>33</v>
       </c>
@@ -5824,8 +6768,15 @@
         <f t="shared" si="3"/>
         <v>-36.043651609859261</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L33" s="1">
+        <v>2.7533500000000001E-14</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="4"/>
+        <v>-31.223372949801419</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>34</v>
       </c>
@@ -5854,8 +6805,15 @@
         <f t="shared" si="3"/>
         <v>-35.350506681097656</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L34" s="1">
+        <v>2.1538299999999999E-14</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="4"/>
+        <v>-31.468943649231097</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>35</v>
       </c>
@@ -5884,8 +6842,15 @@
         <f t="shared" si="3"/>
         <v>-36.043651609859261</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L35" s="1">
+        <v>1.6875400000000001E-14</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="4"/>
+        <v>-31.712919454729317</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>36</v>
       </c>
@@ -5914,8 +6879,15 @@
         <f t="shared" si="3"/>
         <v>-36.736803294020959</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L36" s="1">
+        <v>1.3544699999999999E-14</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="4"/>
+        <v>-31.932781068013149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>37</v>
       </c>
@@ -5944,8 +6916,15 @@
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L37" s="1">
+        <v>1.07692E-14</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="4"/>
+        <v>-32.162086186909853</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>38</v>
       </c>
@@ -5974,8 +6953,15 @@
         <f t="shared" si="3"/>
         <v>-36.043651609859261</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L38" s="1">
+        <v>8.8817800000000005E-15</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="4"/>
+        <v>-32.354774407543665</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>39</v>
       </c>
@@ -6004,8 +6990,15 @@
         <f t="shared" si="3"/>
         <v>-36.736803294020959</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L39" s="1">
+        <v>7.2164499999999999E-15</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="4"/>
+        <v>-32.56241325267569</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>40</v>
       </c>
@@ -6034,8 +7027,15 @@
         <f t="shared" si="3"/>
         <v>-35.350506681097656</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L40" s="1">
+        <v>5.9952000000000001E-15</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="4"/>
+        <v>-32.747817245853398</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>41</v>
       </c>
@@ -6064,8 +7064,15 @@
         <f t="shared" si="3"/>
         <v>-36.043651609859261</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L41" s="1">
+        <v>4.3298700000000003E-15</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="4"/>
+        <v>-33.073238876441678</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>42</v>
       </c>
@@ -6094,8 +7101,15 @@
         <f t="shared" si="3"/>
         <v>-36.736803294020959</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L42" s="1">
+        <v>3.5527100000000001E-15</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="4"/>
+        <v>-33.271065702368197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>43</v>
       </c>
@@ -6124,8 +7138,15 @@
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L43" s="1">
+        <v>2.7755600000000001E-15</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="4"/>
+        <v>-33.517923866269733</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>44</v>
       </c>
@@ -6154,8 +7175,15 @@
         <f t="shared" si="3"/>
         <v>-35.638188002949427</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L44" s="1">
+        <v>2.9976E-15</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="4"/>
+        <v>-33.440964426413345</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>45</v>
       </c>
@@ -6184,8 +7212,15 @@
         <f t="shared" si="3"/>
         <v>-34.94504082238948</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L45" s="1">
+        <v>2.1094199999999999E-15</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="4"/>
+        <v>-33.79236336672615</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>46</v>
       </c>
@@ -6214,8 +7249,15 @@
         <f t="shared" si="3"/>
         <v>-36.736803294020959</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L46" s="1">
+        <v>1.44329E-15</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="4"/>
+        <v>-34.171851165109786</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>47</v>
       </c>
@@ -6244,8 +7286,15 @@
         <f t="shared" si="3"/>
         <v>-36.043651609859261</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L47" s="1">
+        <v>1.3322700000000001E-15</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="4"/>
+        <v>-34.251892140631199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>48</v>
       </c>
@@ -6274,8 +7323,15 @@
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L48" s="1">
+        <v>1.3322700000000001E-15</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="4"/>
+        <v>-34.251892140631199</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>49</v>
       </c>
@@ -6304,8 +7360,15 @@
         <f t="shared" si="3"/>
         <v>-36.043651609859261</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L49" s="1">
+        <v>9.9920099999999996E-16</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="4"/>
+        <v>-34.539575714281312</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>50</v>
       </c>
@@ -6334,8 +7397,15 @@
         <f t="shared" si="3"/>
         <v>-36.736803294020959</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L50" s="1">
+        <v>6.6613400000000001E-16</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="4"/>
+        <v>-34.94504082238948</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>51</v>
       </c>
@@ -6364,8 +7434,15 @@
         <f t="shared" si="3"/>
         <v>-35.638188002949427</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L51" s="1">
+        <v>8.8817800000000003E-16</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="4"/>
+        <v>-34.657359500537709</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>52</v>
       </c>
@@ -6394,8 +7471,15 @@
         <f t="shared" si="3"/>
         <v>-35.350506681097656</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L52" s="1">
+        <v>5.55112E-16</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="4"/>
+        <v>-35.127361778703829</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>53</v>
       </c>
@@ -6424,8 +7508,15 @@
         <f t="shared" si="3"/>
         <v>-36.736803294020959</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L53" s="1">
+        <v>7.7715600000000002E-16</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="4"/>
+        <v>-34.790890571476446</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>54</v>
       </c>
@@ -6454,8 +7545,15 @@
         <f t="shared" si="3"/>
         <v>-36.043651609859261</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L54" s="1">
+        <v>6.6613400000000001E-16</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="4"/>
+        <v>-34.94504082238948</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>55</v>
       </c>
@@ -6484,8 +7582,15 @@
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L55" s="1">
+        <v>6.6613400000000001E-16</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="4"/>
+        <v>-34.94504082238948</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>56</v>
       </c>
@@ -6514,8 +7619,15 @@
         <f t="shared" si="3"/>
         <v>-36.043651609859261</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L56" s="1">
+        <v>2.2204499999999999E-16</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="4"/>
+        <v>-36.043651609859261</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>57</v>
       </c>
@@ -6544,8 +7656,15 @@
         <f t="shared" si="3"/>
         <v>-36.736803294020959</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>58</v>
       </c>
@@ -6574,8 +7693,15 @@
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L58" s="1">
+        <v>2.2204499999999999E-16</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="4"/>
+        <v>-36.043651609859261</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>59</v>
       </c>
@@ -6604,8 +7730,15 @@
         <f t="shared" si="3"/>
         <v>-36.736803294020959</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L59" s="1">
+        <v>6.6613400000000001E-16</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="4"/>
+        <v>-34.94504082238948</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>60</v>
       </c>
@@ -6634,8 +7767,15 @@
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L60" s="1">
+        <v>5.55112E-16</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="4"/>
+        <v>-35.127361778703829</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>61</v>
       </c>
@@ -6664,8 +7804,15 @@
         <f t="shared" si="3"/>
         <v>-35.350506681097656</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L61" s="1">
+        <v>5.55112E-16</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="4"/>
+        <v>-35.127361778703829</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>62</v>
       </c>
@@ -6694,8 +7841,15 @@
         <f t="shared" si="3"/>
         <v>-35.638188002949427</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L62" s="1">
+        <v>3.33067E-16</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="4"/>
+        <v>-35.638188002949427</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>63</v>
       </c>
@@ -6724,8 +7878,15 @@
         <f t="shared" si="3"/>
         <v>-36.043651609859261</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L63" s="1">
+        <v>1.11022E-16</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="4"/>
+        <v>-36.736803294020959</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>64</v>
       </c>
@@ -6754,8 +7915,15 @@
         <f t="shared" si="3"/>
         <v>-36.043651609859261</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L64" s="1">
+        <v>2.2204499999999999E-16</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="4"/>
+        <v>-36.043651609859261</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>65</v>
       </c>
@@ -6784,8 +7952,15 @@
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L65" s="1">
+        <v>3.33067E-16</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="4"/>
+        <v>-35.638188002949427</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>66</v>
       </c>
@@ -6799,23 +7974,30 @@
         <v>1.11022E-16</v>
       </c>
       <c r="F66">
-        <f t="shared" ref="F66:F100" si="4">LN(A66)</f>
+        <f t="shared" ref="F66:F100" si="5">LN(A66)</f>
         <v>4.1896547420264252</v>
       </c>
       <c r="G66">
-        <f t="shared" ref="G66:G100" si="5">LN(B66)</f>
+        <f t="shared" ref="G66:G100" si="6">LN(B66)</f>
         <v>-26.355404157872595</v>
       </c>
       <c r="H66">
-        <f t="shared" ref="H66:H100" si="6">LN(C66)</f>
+        <f t="shared" ref="H66:H100" si="7">LN(C66)</f>
         <v>-3.3071143180934484</v>
       </c>
       <c r="I66">
-        <f t="shared" ref="I66:I100" si="7">LN(D66)</f>
+        <f t="shared" ref="I66:I100" si="8">LN(D66)</f>
         <v>-36.736803294020959</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66" t="e">
+        <f t="shared" ref="M66:M100" si="9">LN(L66)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>67</v>
       </c>
@@ -6829,23 +8011,30 @@
         <v>1.11022E-16</v>
       </c>
       <c r="F67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.2046926193909657</v>
       </c>
       <c r="G67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-26.447100009914401</v>
       </c>
       <c r="H67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.3222854669402011</v>
       </c>
       <c r="I67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-36.736803294020959</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>68</v>
       </c>
@@ -6859,23 +8048,30 @@
         <v>3.33067E-16</v>
       </c>
       <c r="F68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.219507705176107</v>
       </c>
       <c r="G68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-26.537327571138089</v>
       </c>
       <c r="H68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.3372315244652828</v>
       </c>
       <c r="I68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-35.638188002949427</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L68" s="1">
+        <v>2.2204499999999999E-16</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="9"/>
+        <v>-36.043651609859261</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>69</v>
       </c>
@@ -6889,23 +8085,30 @@
         <v>2.2204499999999999E-16</v>
       </c>
       <c r="F69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.2341065045972597</v>
       </c>
       <c r="G69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-26.626177529085975</v>
       </c>
       <c r="H69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.3519558907845175</v>
       </c>
       <c r="I69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-36.043651609859261</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L69" s="1">
+        <v>1.11022E-16</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="9"/>
+        <v>-36.736803294020959</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>70</v>
       </c>
@@ -6919,23 +8122,30 @@
         <v>3.33067E-16</v>
       </c>
       <c r="F70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.2484952420493594</v>
       </c>
       <c r="G70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-26.71361900186843</v>
       </c>
       <c r="H70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.3664655747437635</v>
       </c>
       <c r="I70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-35.638188002949427</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L70" s="1">
+        <v>3.33067E-16</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="9"/>
+        <v>-35.638188002949427</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>71</v>
       </c>
@@ -6949,23 +8159,30 @@
         <v>2.2204499999999999E-16</v>
       </c>
       <c r="F71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.2626798770413155</v>
       </c>
       <c r="G71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-26.800118352212774</v>
       </c>
       <c r="H71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.380768479928522</v>
       </c>
       <c r="I71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-36.043651609859261</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L71" s="1">
+        <v>1.11022E-16</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="9"/>
+        <v>-36.736803294020959</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>72</v>
       </c>
@@ -6979,23 +8196,30 @@
         <v>1.11022E-16</v>
       </c>
       <c r="F72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.2766661190160553</v>
       </c>
       <c r="G72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-26.885186613089598</v>
       </c>
       <c r="H72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.3948704390419331</v>
       </c>
       <c r="I72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-36.736803294020959</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L72" s="1">
+        <v>1.11022E-16</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="9"/>
+        <v>-36.736803294020959</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>73</v>
       </c>
@@ -7009,23 +8233,30 @@
         <v>2.2204499999999999E-16</v>
       </c>
       <c r="F73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.290459441148391</v>
       </c>
       <c r="G73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-26.969018944972145</v>
       </c>
       <c r="H73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.4087750195787772</v>
       </c>
       <c r="I73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-36.043651609859261</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L73" s="1">
+        <v>1.11022E-16</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="9"/>
+        <v>-36.736803294020959</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>74</v>
       </c>
@@ -7039,23 +8270,30 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.3040650932041702</v>
       </c>
       <c r="G74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-27.052213531473789</v>
       </c>
       <c r="H74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.4224894576365092</v>
       </c>
       <c r="I74" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>75</v>
       </c>
@@ -7069,23 +8307,30 @@
         <v>1.11022E-16</v>
       </c>
       <c r="F75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.3174881135363101</v>
       </c>
       <c r="G75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-27.133542164057964</v>
       </c>
       <c r="H75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.4360186665075774</v>
       </c>
       <c r="I75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-36.736803294020959</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L75" s="1">
+        <v>3.33067E-16</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="9"/>
+        <v>-35.638188002949427</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>76</v>
       </c>
@@ -7099,23 +8344,30 @@
         <v>5.55112E-16</v>
       </c>
       <c r="F76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.3307333402863311</v>
       </c>
       <c r="G76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-27.214279823626068</v>
       </c>
       <c r="H76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.4493650396287849</v>
       </c>
       <c r="I76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-35.127361778703829</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L76" s="1">
+        <v>4.4408900000000002E-16</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="9"/>
+        <v>-35.350506681097656</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>77</v>
       </c>
@@ -7129,23 +8381,30 @@
         <v>1.11022E-16</v>
       </c>
       <c r="F77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.3438054218536841</v>
       </c>
       <c r="G77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-27.293841986357897</v>
       </c>
       <c r="H77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.4625378221156313</v>
       </c>
       <c r="I77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-36.736803294020959</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L77" s="1">
+        <v>1.11022E-16</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="9"/>
+        <v>-36.736803294020959</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>78</v>
       </c>
@@ -7159,23 +8418,30 @@
         <v>3.33067E-16</v>
       </c>
       <c r="F78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.3567088266895917</v>
       </c>
       <c r="G78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-27.372024052586745</v>
       </c>
       <c r="H78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.4755373807320402</v>
       </c>
       <c r="I78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-35.638188002949427</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>79</v>
       </c>
@@ -7189,23 +8455,30 @@
         <v>5.55112E-16</v>
       </c>
       <c r="F79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.3694478524670215</v>
       </c>
       <c r="G79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-27.449408143454512</v>
       </c>
       <c r="H79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.48837095362286</v>
       </c>
       <c r="I79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-35.127361778703829</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L79" s="1">
+        <v>3.33067E-16</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="9"/>
+        <v>-35.638188002949427</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>80</v>
       </c>
@@ -7219,23 +8492,30 @@
         <v>2.2204499999999999E-16</v>
       </c>
       <c r="F80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.3820266346738812</v>
       </c>
       <c r="G80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-27.526057679096084</v>
       </c>
       <c r="H80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.5010431316319575</v>
       </c>
       <c r="I80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-36.043651609859261</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L80" s="1">
+        <v>4.4408900000000002E-16</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="9"/>
+        <v>-35.350506681097656</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>81</v>
       </c>
@@ -7249,23 +8529,30 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.3944491546724391</v>
       </c>
       <c r="G81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-27.601617665559306</v>
       </c>
       <c r="H81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.5135556579683147</v>
       </c>
       <c r="I81" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L81" s="1">
+        <v>1.11022E-16</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="9"/>
+        <v>-36.736803294020959</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>82</v>
       </c>
@@ -7279,23 +8566,30 @@
         <v>1.11022E-16</v>
       </c>
       <c r="F82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.4067192472642533</v>
       </c>
       <c r="G82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-27.675772696167481</v>
       </c>
       <c r="H82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.5259140243122595</v>
       </c>
       <c r="I82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-36.736803294020959</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L82" s="1">
+        <v>1.11022E-16</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="9"/>
+        <v>-36.736803294020959</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>83</v>
       </c>
@@ -7309,23 +8603,30 @@
         <v>1.11022E-16</v>
       </c>
       <c r="F83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.4188406077965983</v>
       </c>
       <c r="G83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-27.749479254415576</v>
       </c>
       <c r="H83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.5381173662277474</v>
       </c>
       <c r="I83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-36.736803294020959</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L83" s="1">
+        <v>2.2204499999999999E-16</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="9"/>
+        <v>-36.043651609859261</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>84</v>
       </c>
@@ -7339,23 +8640,30 @@
         <v>2.2204499999999999E-16</v>
       </c>
       <c r="F84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.4308167988433134</v>
       </c>
       <c r="G84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-27.822443156797764</v>
       </c>
       <c r="H84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.5501789444244123</v>
       </c>
       <c r="I84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-36.043651609859261</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L84" s="1">
+        <v>1.11022E-16</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="9"/>
+        <v>-36.736803294020959</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>85</v>
       </c>
@@ -7369,23 +8677,30 @@
         <v>2.2204499999999999E-16</v>
       </c>
       <c r="F85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.4426512564903167</v>
       </c>
       <c r="G85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-27.894341036890278</v>
       </c>
       <c r="H85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.5620952728116562</v>
       </c>
       <c r="I85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-36.043651609859261</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L85" s="1">
+        <v>3.33067E-16</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="9"/>
+        <v>-35.638188002949427</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>86</v>
       </c>
@@ -7399,23 +8714,30 @@
         <v>3.33067E-16</v>
       </c>
       <c r="F86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.4543472962535073</v>
       </c>
       <c r="G86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-27.965585174280459</v>
       </c>
       <c r="H86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.5738700391674856</v>
       </c>
       <c r="I86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-35.638188002949427</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L86" s="1">
+        <v>2.2204499999999999E-16</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="9"/>
+        <v>-36.043651609859261</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>87</v>
       </c>
@@ -7429,23 +8751,30 @@
         <v>1.11022E-16</v>
       </c>
       <c r="F87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.4659081186545837</v>
       </c>
       <c r="G87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-28.035287942263167</v>
       </c>
       <c r="H87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.5855073139651243</v>
       </c>
       <c r="I87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-36.736803294020959</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>88</v>
       </c>
@@ -7459,23 +8788,30 @@
         <v>4.4408900000000002E-16</v>
       </c>
       <c r="F88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.4773368144782069</v>
       </c>
       <c r="G88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-28.104138387531556</v>
       </c>
       <c r="H88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.5970115558046616</v>
       </c>
       <c r="I88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-35.350506681097656</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L88" s="1">
+        <v>1.11022E-16</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="9"/>
+        <v>-36.736803294020959</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>89</v>
       </c>
@@ -7489,23 +8825,30 @@
         <v>2.2204499999999999E-16</v>
       </c>
       <c r="F89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.4886363697321396</v>
       </c>
       <c r="G89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-28.173296127968129</v>
       </c>
       <c r="H89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.6083839259021735</v>
       </c>
       <c r="I89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-36.043651609859261</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L89" s="1">
+        <v>1.11022E-16</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="9"/>
+        <v>-36.736803294020959</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>90</v>
       </c>
@@ -7519,23 +8862,30 @@
         <v>2.2204499999999999E-16</v>
       </c>
       <c r="F90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.499809670330265</v>
       </c>
       <c r="G90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-28.242262095428561</v>
       </c>
       <c r="H90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.6196295489962922</v>
       </c>
       <c r="I90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-36.043651609859261</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L90" s="1">
+        <v>1.11022E-16</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="9"/>
+        <v>-36.736803294020959</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>91</v>
       </c>
@@ -7549,23 +8899,30 @@
         <v>1.11022E-16</v>
       </c>
       <c r="F91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.5108595065168497</v>
       </c>
       <c r="G91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-28.308438658445553</v>
       </c>
       <c r="H91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.6307501783796186</v>
       </c>
       <c r="I91">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-36.736803294020959</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L91" s="1">
+        <v>4.4408900000000002E-16</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="9"/>
+        <v>-35.350506681097656</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>92</v>
       </c>
@@ -7579,23 +8936,30 @@
         <v>2.2204499999999999E-16</v>
       </c>
       <c r="F92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.5217885770490405</v>
       </c>
       <c r="G92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-28.375093237673784</v>
       </c>
       <c r="H92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.6417478073816651</v>
       </c>
       <c r="I92">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-36.043651609859261</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L92" s="1">
+        <v>2.2204499999999999E-16</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="9"/>
+        <v>-36.043651609859261</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>93</v>
       </c>
@@ -7609,23 +8973,30 @@
         <v>4.4408900000000002E-16</v>
       </c>
       <c r="F93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.5325994931532563</v>
       </c>
       <c r="G93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-28.441003281686765</v>
       </c>
       <c r="H93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.6526246734547652</v>
       </c>
       <c r="I93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-35.350506681097656</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L93" s="1">
+        <v>7.7715600000000002E-16</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="9"/>
+        <v>-34.790890571476446</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>94</v>
       </c>
@@ -7639,23 +9010,30 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.5432947822700038</v>
       </c>
       <c r="G94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-28.505690173111883</v>
       </c>
       <c r="H94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.6633871613530005</v>
       </c>
       <c r="I94" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L94" s="1">
+        <v>2.2204499999999999E-16</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="9"/>
+        <v>-36.043651609859261</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>95</v>
       </c>
@@ -7669,23 +9047,30 @@
         <v>5.55112E-16</v>
       </c>
       <c r="F95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.5538768916005408</v>
       </c>
       <c r="G95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-28.568880283220796</v>
       </c>
       <c r="H95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.6740302512637304</v>
       </c>
       <c r="I95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-35.127361778703829</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L95" s="1">
+        <v>3.33067E-16</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="9"/>
+        <v>-35.638188002949427</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>96</v>
       </c>
@@ -7699,23 +9084,30 @@
         <v>1.11022E-16</v>
       </c>
       <c r="F96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.5643481914678361</v>
       </c>
       <c r="G96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-28.632398714215004</v>
       </c>
       <c r="H96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.6845647757404545</v>
       </c>
       <c r="I96">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-36.736803294020959</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>97</v>
       </c>
@@ -7729,23 +9121,30 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.5747109785033828</v>
       </c>
       <c r="G97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-28.695710353152098</v>
       </c>
       <c r="H97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.6949900860550002</v>
       </c>
       <c r="I97" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>98</v>
       </c>
@@ -7759,23 +9158,30 @@
         <v>1.11022E-16</v>
       </c>
       <c r="F98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.5849674786705723</v>
       </c>
       <c r="G98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-28.756777494603838</v>
       </c>
       <c r="H98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.7053056280496901</v>
       </c>
       <c r="I98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-36.736803294020959</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L98" s="1">
+        <v>2.2204499999999999E-16</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="9"/>
+        <v>-36.043651609859261</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>99</v>
       </c>
@@ -7789,23 +9195,30 @@
         <v>2.2204499999999999E-16</v>
       </c>
       <c r="F99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.5951198501345898</v>
       </c>
       <c r="G99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-28.818900778981284</v>
       </c>
       <c r="H99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.7155191610628306</v>
       </c>
       <c r="I99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-36.043651609859261</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L99" s="1">
+        <v>1.11022E-16</v>
+      </c>
+      <c r="M99">
+        <f t="shared" si="9"/>
+        <v>-36.736803294020959</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>100</v>
       </c>
@@ -7819,20 +9232,27 @@
         <v>1.11022E-16</v>
       </c>
       <c r="F100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.6051701859880918</v>
       </c>
       <c r="G100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-28.880479550415615</v>
       </c>
       <c r="H100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.7256264294810522</v>
       </c>
       <c r="I100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-36.736803294020959</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>
